--- a/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -514,14 +529,23 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8823529411764706</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.05882352941176471</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1764705882352941</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -555,10 +579,19 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="I3" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.9411764705882354</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.3529411764705882</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +623,22 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I4" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.4705882352941184</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -628,14 +670,23 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1176470588235294</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -666,14 +717,23 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="J6" t="n">
         <v>0.5294117647058824</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3529411764705888</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -704,13 +764,22 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="H7" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.4705882352941176</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>0.7647058823529411</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.5882352941176471</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +811,22 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6470588235294124</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I8" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.647058823529412</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.8235294117647058</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.7647058823529411</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="9">
@@ -783,11 +861,20 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2352941176470588</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5882352941176471</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -818,13 +905,22 @@
         <v>0.8235294117647058</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="I10" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.7058823529411764</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.9411764705882353</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.05882352941176653</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +955,19 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="I11" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.4117647058823529</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.7058823529411764</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="12">
@@ -894,13 +999,22 @@
         <v>0.9411764705882355</v>
       </c>
       <c r="H12" t="n">
+        <v>0.9411764705882355</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.9411764705882354</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
+        <v>0.9411764705882355</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>0.8235294117647058</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="13">
@@ -932,14 +1046,23 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="J13" t="n">
         <v>0.8823529411764706</v>
       </c>
+      <c r="K13" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6470588235294118</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -970,13 +1093,22 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="I14" t="n">
         <v>0.2941176470588235</v>
       </c>
       <c r="J14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.2941176470588235</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="15">
@@ -1008,13 +1140,22 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I15" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>0.1176470588235294</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7058823529411765</v>
       </c>
     </row>
     <row r="16">
@@ -1046,13 +1187,22 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="I16" t="n">
+        <v>0.7058823529411766</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>0.1764705882352941</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="17">
@@ -1087,10 +1237,19 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="I17" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.6470588235294122</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>0.2352941176470588</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1281,22 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="H18" t="n">
+        <v>0.6470588235294121</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.7058823529411764</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>0.4705882352941176</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.647058823529413</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="19">
@@ -1160,13 +1328,22 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="H19" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.1764705882352942</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>0.4117647058823529</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5294117647058824</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F2" t="n">
         <v>0.05882352941176471</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0.8823529411764706</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470591</v>
       </c>
     </row>
     <row r="3">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I3" t="n">
         <v>0.1764705882352941</v>
@@ -588,10 +588,10 @@
         <v>0.9411764705882354</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="4">
@@ -611,34 +611,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9117647058823529</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I4" t="n">
         <v>0.2352941176470588</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4705882352941184</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="F5" t="n">
         <v>0.2941176470588235</v>
@@ -676,16 +676,16 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="J5" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="F6" t="n">
         <v>0.5294117647058824</v>
@@ -720,19 +720,19 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="J6" t="n">
         <v>0.5294117647058824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3529411764705888</v>
+        <v>0.3529411764705882</v>
       </c>
     </row>
     <row r="7">
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E7" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.3529411764705882</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4705882352941176</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.6470588235294129</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="8">
@@ -799,34 +799,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9117647058823529</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F8" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="J8" t="n">
-        <v>0.647058823529412</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="L8" t="n">
         <v>0.7647058823529411</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="9">
@@ -849,10 +849,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -867,13 +867,13 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="10">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="G10" t="n">
         <v>0.8235294117647058</v>
@@ -914,13 +914,13 @@
         <v>0.8235294117647058</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05882352941176653</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="11">
@@ -940,34 +940,34 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6470588235294121</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.7058823529411764</v>
-      </c>
       <c r="M11" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="12">
@@ -987,34 +987,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.9411764705882368</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9411764705882355</v>
+        <v>0.9411764705882354</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9411764705882355</v>
+        <v>0.9411764705882354</v>
       </c>
       <c r="I12" t="n">
         <v>0.9411764705882354</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9411764705882355</v>
+        <v>0.9411764705882354</v>
       </c>
       <c r="K12" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
     <row r="13">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.4117647058823529</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.5294117647058824</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G13" t="n">
         <v>0.8823529411764706</v>
@@ -1055,13 +1055,13 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="L13" t="n">
         <v>0.8823529411764706</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6470588235294122</v>
       </c>
     </row>
     <row r="14">
@@ -1081,34 +1081,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3529411764705884</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3529411764705884</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3529411764705886</v>
       </c>
       <c r="J14" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.2941176470588235</v>
-      </c>
       <c r="L14" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3529411764705943</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.4705882352941184</v>
       </c>
     </row>
     <row r="15">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1140,13 +1140,13 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K15" t="n">
         <v>0.05882352941176471</v>
@@ -1155,7 +1155,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="16">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="E16" t="n">
         <v>0.2352941176470588</v>
@@ -1184,25 +1184,25 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7058823529411766</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7058823529411764</v>
       </c>
     </row>
     <row r="17">
@@ -1222,10 +1222,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="F17" t="n">
         <v>0.1764705882352941</v>
@@ -1243,10 +1243,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6470588235294122</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="F18" t="n">
         <v>0.3529411764705882</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6470588235294121</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7058823529411766</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L18" t="n">
-        <v>0.647058823529413</v>
+        <v>0.7058823529411768</v>
       </c>
       <c r="M18" t="n">
         <v>0.8823529411764706</v>
@@ -1316,22 +1316,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="J19" t="n">
         <v>0.5882352941176471</v>
@@ -1340,10 +1340,10 @@
         <v>0.1764705882352942</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,9 +538,6 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.2352941176470591</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -590,9 +582,6 @@
       <c r="L3" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.4117647058823529</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,9 +626,6 @@
       <c r="L4" t="n">
         <v>0.4117647058823529</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.5294117647058824</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,9 +670,6 @@
       <c r="L5" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -731,9 +714,6 @@
       <c r="L6" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.3529411764705882</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -778,9 +758,6 @@
       <c r="L7" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.05882352941176471</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -825,9 +802,6 @@
       <c r="L8" t="n">
         <v>0.7647058823529411</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.1176470588235294</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,9 +846,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.2941176470588235</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -919,9 +890,6 @@
       <c r="L10" t="n">
         <v>0.8235294117647058</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.1764705882352941</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -966,9 +934,6 @@
       <c r="L11" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.8235294117647058</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1013,9 +978,6 @@
       <c r="L12" t="n">
         <v>0.9411764705882353</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.7647058823529411</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,9 +1022,6 @@
       <c r="L13" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.6470588235294122</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1107,9 +1066,6 @@
       <c r="L14" t="n">
         <v>0.3529411764705943</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.4705882352941184</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1154,9 +1110,6 @@
       <c r="L15" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.5882352941176471</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1201,9 +1154,6 @@
       <c r="L16" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.7058823529411764</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1248,9 +1198,6 @@
       <c r="L17" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1295,9 +1242,6 @@
       <c r="L18" t="n">
         <v>0.7058823529411768</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.8823529411764706</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1341,9 +1285,6 @@
       </c>
       <c r="L19" t="n">
         <v>0.4705882352941176</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9411764705882353</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_EXP_FIT.xlsx
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F2" t="n">
         <v>0.05882352941176471</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K2" t="n">
         <v>0.8823529411764706</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="3">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I3" t="n">
         <v>0.1764705882352941</v>
@@ -580,7 +580,7 @@
         <v>0.9411764705882354</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3529411764705882</v>
       </c>
     </row>
     <row r="4">
@@ -600,31 +600,31 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.7647058823529411</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I4" t="n">
         <v>0.2352941176470588</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941184</v>
       </c>
     </row>
     <row r="5">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="F5" t="n">
         <v>0.2941176470588235</v>
@@ -662,13 +662,13 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="F6" t="n">
         <v>0.5294117647058824</v>
@@ -703,16 +703,16 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="J6" t="n">
         <v>0.5294117647058824</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="7">
@@ -732,31 +732,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E7" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.5882352941176471</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.3529411764705882</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6470588235294129</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="8">
@@ -776,28 +776,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="F8" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.647058823529412</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L8" t="n">
         <v>0.7647058823529411</v>
@@ -823,10 +823,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5882352941176471</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="G10" t="n">
         <v>0.8235294117647058</v>
@@ -885,10 +885,10 @@
         <v>0.8235294117647058</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="11">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6470588235294121</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.7058823529411764</v>
       </c>
     </row>
     <row r="12">
@@ -952,31 +952,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9411764705882368</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9411764705882447</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9411764705882354</v>
+        <v>0.9411764705882355</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9411764705882354</v>
+        <v>0.9411764705882355</v>
       </c>
       <c r="I12" t="n">
         <v>0.9411764705882354</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9411764705882354</v>
+        <v>0.9411764705882355</v>
       </c>
       <c r="K12" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="13">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G13" t="n">
         <v>0.8823529411764706</v>
@@ -1017,7 +1017,7 @@
         <v>0.8823529411764706</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3529411764705882</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L13" t="n">
         <v>0.8823529411764706</v>
@@ -1040,31 +1040,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3529411764705884</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3529411764705884</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3529411764705886</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3529411764705943</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="15">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="K15" t="n">
         <v>0.05882352941176471</v>
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E16" t="n">
         <v>0.2352941176470588</v>
@@ -1137,22 +1137,22 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411766</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="17">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F17" t="n">
         <v>0.1764705882352941</v>
@@ -1193,10 +1193,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.6470588235294122</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="18">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="F18" t="n">
         <v>0.3529411764705882</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294121</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7058823529411766</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7058823529411768</v>
+        <v>0.647058823529413</v>
       </c>
     </row>
     <row r="19">
@@ -1260,22 +1260,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E19" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.7058823529411764</v>
-      </c>
       <c r="G19" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="J19" t="n">
         <v>0.5882352941176471</v>
@@ -1284,7 +1284,7 @@
         <v>0.1764705882352942</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
   </sheetData>
